--- a/data/trans_orig/P39B_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Dificultad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6513</v>
+        <v>6452</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004022944488573096</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01410256331557244</v>
+        <v>0.013969641480797</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -762,19 +762,19 @@
         <v>7034</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3084</v>
+        <v>3245</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13035</v>
+        <v>12793</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01191635500717154</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005224219844533088</v>
+        <v>0.005496879671008795</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02208198660268228</v>
+        <v>0.02167241939245515</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -783,19 +783,19 @@
         <v>8892</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4591</v>
+        <v>4328</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15547</v>
+        <v>15859</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008451414996886198</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004363350879603549</v>
+        <v>0.004113217420582308</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01477662166845209</v>
+        <v>0.01507268555760895</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>6671</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2011</v>
+        <v>2140</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16779</v>
+        <v>17207</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01444316677503722</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004355187453082244</v>
+        <v>0.004632613542769621</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03632926326895776</v>
+        <v>0.03725613092832345</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -833,19 +833,19 @@
         <v>11519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7028</v>
+        <v>6824</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18081</v>
+        <v>18337</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01951399516630908</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01190561703375209</v>
+        <v>0.01156057953948097</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03063036287669057</v>
+        <v>0.03106483919092005</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -854,19 +854,19 @@
         <v>18190</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11662</v>
+        <v>11182</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30466</v>
+        <v>29235</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01728807315999634</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01108370629056638</v>
+        <v>0.01062818468906806</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02895653691485391</v>
+        <v>0.02778587586582967</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>402099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>383613</v>
+        <v>383260</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>416683</v>
+        <v>416090</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8706168420750799</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8305908349567629</v>
+        <v>0.8298270498847274</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9021949737182132</v>
+        <v>0.9009100141902625</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>724</v>
@@ -904,19 +904,19 @@
         <v>532177</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>519356</v>
+        <v>516870</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>543957</v>
+        <v>542870</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9015554326836559</v>
+        <v>0.9015554326836558</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8798341417532913</v>
+        <v>0.8756233464270974</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9215113367976906</v>
+        <v>0.9196699672787572</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1094</v>
@@ -925,19 +925,19 @@
         <v>934277</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>910616</v>
+        <v>912949</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>952927</v>
+        <v>954785</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8879744387382749</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8654856712616334</v>
+        <v>0.8677032624346657</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9057001195308788</v>
+        <v>0.9074662193657649</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>29668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19213</v>
+        <v>20121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42112</v>
+        <v>43247</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06423712345502436</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04159939412320896</v>
+        <v>0.04356542491331868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09118082434157911</v>
+        <v>0.09363728845561256</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -975,19 +975,19 @@
         <v>30103</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21813</v>
+        <v>22264</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39935</v>
+        <v>40425</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.050997738877189</v>
+        <v>0.05099773887718901</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03695315731483441</v>
+        <v>0.03771711345994243</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06765263989866718</v>
+        <v>0.0684836959679944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>77</v>
@@ -996,19 +996,19 @@
         <v>59772</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47761</v>
+        <v>46281</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77022</v>
+        <v>75139</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05680938052780493</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04539376967200128</v>
+        <v>0.04398712179957656</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07320473833049661</v>
+        <v>0.07141545249715842</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>21559</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13930</v>
+        <v>13163</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35881</v>
+        <v>34826</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04667992320628547</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03016153435497828</v>
+        <v>0.02850082830135404</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07768976648533744</v>
+        <v>0.07540560634115552</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -1046,19 +1046,19 @@
         <v>9454</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5389</v>
+        <v>5220</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16020</v>
+        <v>16448</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01601647826567437</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00912928807551343</v>
+        <v>0.008842904112245802</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02713899054094341</v>
+        <v>0.0278636457832207</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -1067,19 +1067,19 @@
         <v>31014</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20823</v>
+        <v>21853</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42999</v>
+        <v>44616</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02947669257703778</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01979140336107922</v>
+        <v>0.02076980377712811</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04086765463075263</v>
+        <v>0.04240464238324011</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>14176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8615</v>
+        <v>8302</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24222</v>
+        <v>23725</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01514026532174834</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009201391421533962</v>
+        <v>0.008867214291452598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02587026974917347</v>
+        <v>0.02533985304239604</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1192,19 +1192,19 @@
         <v>15047</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9343</v>
+        <v>9915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21900</v>
+        <v>22870</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01404127550338458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008718477286862484</v>
+        <v>0.009251989284914336</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02043683261444529</v>
+        <v>0.02134195112038898</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -1213,19 +1213,19 @@
         <v>29222</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21068</v>
+        <v>20627</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40573</v>
+        <v>39441</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01455373831020066</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01049270374209281</v>
+        <v>0.01027302314536812</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02020671141469135</v>
+        <v>0.01964314675849992</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>14075</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7572</v>
+        <v>7812</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26864</v>
+        <v>26361</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01503293429536478</v>
+        <v>0.01503293429536479</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008087190266800702</v>
+        <v>0.008343946713475993</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02869219268627759</v>
+        <v>0.02815443757578881</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -1263,19 +1263,19 @@
         <v>15145</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9266</v>
+        <v>9401</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26669</v>
+        <v>24870</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.01413281684954747</v>
+        <v>0.01413281684954746</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008646936027196215</v>
+        <v>0.008772695349094972</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02488672370837737</v>
+        <v>0.0232082132926148</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -1284,19 +1284,19 @@
         <v>29220</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19463</v>
+        <v>20569</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45078</v>
+        <v>44419</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01455254477153535</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009693218717167246</v>
+        <v>0.01024418381345367</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02245022274872463</v>
+        <v>0.02212198513213067</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>849126</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>828467</v>
+        <v>827610</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>865615</v>
+        <v>866116</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9069041851067013</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8848395837075586</v>
+        <v>0.8839238841988828</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9245144346830297</v>
+        <v>0.9250500679732016</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1396</v>
@@ -1334,19 +1334,19 @@
         <v>987727</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>972595</v>
+        <v>971274</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1003133</v>
+        <v>1002303</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9217227281998284</v>
+        <v>0.9217227281998283</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9076013714023871</v>
+        <v>0.9063685405924233</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9360988887390443</v>
+        <v>0.9353242057415386</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2179</v>
@@ -1355,19 +1355,19 @@
         <v>1836854</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1811256</v>
+        <v>1809989</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1861122</v>
+        <v>1859262</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9148127895820753</v>
+        <v>0.9148127895820757</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.902064166127056</v>
+        <v>0.9014331702089177</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.926899301708461</v>
+        <v>0.9259726968068978</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>42532</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30838</v>
+        <v>31193</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56467</v>
+        <v>57634</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04542581988807595</v>
+        <v>0.04542581988807596</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03293581823093641</v>
+        <v>0.03331598675652152</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06030976951146309</v>
+        <v>0.06155595515848838</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -1405,19 +1405,19 @@
         <v>45903</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36062</v>
+        <v>35201</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58135</v>
+        <v>57690</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04283599928240302</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03365241547669948</v>
+        <v>0.03284897151235312</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05425008858917022</v>
+        <v>0.05383466749338571</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -1426,19 +1426,19 @@
         <v>88435</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73657</v>
+        <v>71887</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107713</v>
+        <v>105976</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04404364171416756</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0366837379249104</v>
+        <v>0.0358020072268622</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05364449867011398</v>
+        <v>0.05277957265118146</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>16382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9539</v>
+        <v>9431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29407</v>
+        <v>30045</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01749679538810955</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01018793936607488</v>
+        <v>0.01007241075222861</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03140782890703962</v>
+        <v>0.03208917973904992</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1476,19 +1476,19 @@
         <v>7788</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4068</v>
+        <v>3941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14116</v>
+        <v>13589</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.00726718016483672</v>
+        <v>0.007267180164836716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003795731689173062</v>
+        <v>0.00367808088234393</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01317252960357141</v>
+        <v>0.01268100158578792</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -1497,19 +1497,19 @@
         <v>24170</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15395</v>
+        <v>15467</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35687</v>
+        <v>37593</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01203728562202095</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00766727087797782</v>
+        <v>0.007703272902938666</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0177732211364674</v>
+        <v>0.01872233035321379</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>3491</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>856</v>
+        <v>943</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8435</v>
+        <v>8856</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.003359643267414593</v>
+        <v>0.003359643267414594</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0008236285297743939</v>
+        <v>0.0009073573395872585</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008117105705143807</v>
+        <v>0.008522300354895306</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1622,19 +1622,19 @@
         <v>7226</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3786</v>
+        <v>3214</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13403</v>
+        <v>13506</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007025015447471162</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003680370343557888</v>
+        <v>0.003124212929685412</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01302999318012866</v>
+        <v>0.01313029398218234</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1643,19 +1643,19 @@
         <v>10717</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5649</v>
+        <v>6075</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17245</v>
+        <v>17903</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005183017218860472</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002731669249559517</v>
+        <v>0.002937985787315555</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008339895710805661</v>
+        <v>0.008657870735731829</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>9009</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4002</v>
+        <v>4563</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16519</v>
+        <v>17166</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008669248542083523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003851477120271008</v>
+        <v>0.004391486760116139</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01589641494653788</v>
+        <v>0.01651957333747172</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -1693,19 +1693,19 @@
         <v>9477</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5794</v>
+        <v>5607</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15577</v>
+        <v>15835</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009213034885606573</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005632353785279194</v>
+        <v>0.005450485648579266</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01514296398662756</v>
+        <v>0.01539364438947289</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -1714,19 +1714,19 @@
         <v>18486</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12153</v>
+        <v>12066</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28398</v>
+        <v>27424</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008939760185983386</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005877395602911372</v>
+        <v>0.005835029776272201</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01373322432147412</v>
+        <v>0.01326237549344414</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>989813</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>974081</v>
+        <v>972497</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1001878</v>
+        <v>1002320</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9525161267159444</v>
+        <v>0.9525161267159445</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9373766526142313</v>
+        <v>0.9358524342183842</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.964126576637981</v>
+        <v>0.9645519611242913</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1412</v>
@@ -1764,19 +1764,19 @@
         <v>986624</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>973923</v>
+        <v>974288</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>995472</v>
+        <v>995936</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9591447434106246</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9467977415541453</v>
+        <v>0.9471522177271524</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9677464272051246</v>
+        <v>0.9681975160705929</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2374</v>
@@ -1785,19 +1785,19 @@
         <v>1976437</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1958036</v>
+        <v>1956064</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1993551</v>
+        <v>1991957</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.9558135945913655</v>
+        <v>0.9558135945913656</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9469148200355657</v>
+        <v>0.9459610672804113</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9640899216291663</v>
+        <v>0.9633188808647049</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>30181</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20561</v>
+        <v>21016</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44194</v>
+        <v>44074</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02904415038222186</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01978597686362306</v>
+        <v>0.02022379658618663</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04252894277065113</v>
+        <v>0.04241370464270314</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -1835,19 +1835,19 @@
         <v>19662</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13285</v>
+        <v>13476</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27437</v>
+        <v>27853</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01911476747507781</v>
+        <v>0.0191147674750778</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01291545664103903</v>
+        <v>0.0131005935188703</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0266730577946301</v>
+        <v>0.02707678883441235</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -1856,19 +1856,19 @@
         <v>49844</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37980</v>
+        <v>37646</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65577</v>
+        <v>65141</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02410468523177184</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01836734753914068</v>
+        <v>0.01820599915081657</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03171329346123627</v>
+        <v>0.03150249092651693</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>6662</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2725</v>
+        <v>2703</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13873</v>
+        <v>15047</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006410831092335487</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002622064189736675</v>
+        <v>0.002601226025058575</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01335044781781513</v>
+        <v>0.01447955936300671</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1906,19 +1906,19 @@
         <v>5660</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2185</v>
+        <v>2525</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12608</v>
+        <v>12556</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.005502438781219913</v>
+        <v>0.005502438781219914</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002124595758242772</v>
+        <v>0.002454683530497872</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01225645580946219</v>
+        <v>0.01220626919733203</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1927,19 +1927,19 @@
         <v>12322</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6830</v>
+        <v>6714</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21772</v>
+        <v>21101</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005958942772018641</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003303123211673621</v>
+        <v>0.003247012796891296</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01052893212826933</v>
+        <v>0.0102046744125701</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>9968</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5033</v>
+        <v>5193</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18518</v>
+        <v>17933</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0103076074561725</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00520412700295434</v>
+        <v>0.005370522658542305</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01914893090746488</v>
+        <v>0.01854460589085877</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2052,19 +2052,19 @@
         <v>7061</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3611</v>
+        <v>3568</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12437</v>
+        <v>12649</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.007811479317876918</v>
+        <v>0.007811479317876919</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00399500575903774</v>
+        <v>0.003946782476073144</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0137584458154139</v>
+        <v>0.01399209094579051</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2073,19 +2073,19 @@
         <v>17029</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10479</v>
+        <v>10506</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25900</v>
+        <v>26292</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.009101606099973143</v>
+        <v>0.009101606099973146</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005600616520041611</v>
+        <v>0.005614942234524998</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01384275718926655</v>
+        <v>0.01405217918413693</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>4262</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1327</v>
+        <v>1293</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11735</v>
+        <v>11305</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00440695172381965</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001372010376564447</v>
+        <v>0.001336631512571031</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01213497765595642</v>
+        <v>0.01169022355767185</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2123,19 +2123,19 @@
         <v>5341</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2013</v>
+        <v>2375</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11296</v>
+        <v>12644</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.005908485924406988</v>
+        <v>0.005908485924406989</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002227049917769672</v>
+        <v>0.002627300451294618</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0124963140116348</v>
+        <v>0.01398707347118293</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -2144,19 +2144,19 @@
         <v>9603</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4939</v>
+        <v>4637</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>19843</v>
+        <v>17795</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.005132416195977933</v>
+        <v>0.005132416195977934</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00263987620017108</v>
+        <v>0.002478586020548818</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0106056417721272</v>
+        <v>0.009510636671832927</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>921140</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>906008</v>
+        <v>906484</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>933178</v>
+        <v>933494</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9525415302497724</v>
+        <v>0.9525415302497725</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9368934592503142</v>
+        <v>0.9373857210154179</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9649895373739162</v>
+        <v>0.9653170883137191</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1272</v>
@@ -2194,19 +2194,19 @@
         <v>872024</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>859505</v>
+        <v>857534</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>881105</v>
+        <v>881185</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9646530058560715</v>
+        <v>0.9646530058560716</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9508039107388137</v>
+        <v>0.9486236701620935</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.974698043233398</v>
+        <v>0.9747866237893339</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2159</v>
@@ -2215,19 +2215,19 @@
         <v>1793164</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1770614</v>
+        <v>1773457</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1808039</v>
+        <v>1810575</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9583931753567202</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9463407254347447</v>
+        <v>0.9478601547943813</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9663434246423341</v>
+        <v>0.9676986365856283</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>19238</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12329</v>
+        <v>11881</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31396</v>
+        <v>31063</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01989364171934214</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01274955338873549</v>
+        <v>0.01228611185593461</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03246583714793827</v>
+        <v>0.03212148831639706</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2265,19 +2265,19 @@
         <v>6870</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2996</v>
+        <v>2644</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18377</v>
+        <v>18252</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.007599349877329284</v>
+        <v>0.007599349877329285</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003314471514559362</v>
+        <v>0.002924838753037815</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02032906328984199</v>
+        <v>0.02019036866643687</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -2286,19 +2286,19 @@
         <v>26107</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16854</v>
+        <v>16157</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41202</v>
+        <v>40019</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01395366916444663</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009007716415491727</v>
+        <v>0.008635436419018488</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02202119414840735</v>
+        <v>0.02138910879042974</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>12427</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7375</v>
+        <v>7307</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20526</v>
+        <v>20416</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01285026885089338</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007626501620335305</v>
+        <v>0.007555799819001339</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02122568621169075</v>
+        <v>0.02111183188335617</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -2336,19 +2336,19 @@
         <v>12681</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7717</v>
+        <v>6948</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24073</v>
+        <v>24352</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01402767902431526</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008536669049067533</v>
+        <v>0.007685862705454751</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02662978408048432</v>
+        <v>0.02693897766907141</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -2357,19 +2357,19 @@
         <v>25107</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16608</v>
+        <v>17097</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36475</v>
+        <v>35864</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01341913318288208</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008876394361198081</v>
+        <v>0.009137977551313511</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01949471463278866</v>
+        <v>0.01916803608944765</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>29493</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19643</v>
+        <v>19193</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41830</v>
+        <v>40435</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.008663278116604004</v>
+        <v>0.008663278116604006</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005769899932616173</v>
+        <v>0.00563785225444151</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01228722212810783</v>
+        <v>0.01187736718800125</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>53</v>
@@ -2482,19 +2482,19 @@
         <v>36369</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27534</v>
+        <v>27323</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>47906</v>
+        <v>47989</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01011775794177127</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007660094719248752</v>
+        <v>0.007601404809886263</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0133276221252176</v>
+        <v>0.01335054245301572</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>84</v>
@@ -2503,19 +2503,19 @@
         <v>65861</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>53035</v>
+        <v>52820</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>82593</v>
+        <v>81807</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009410280029270315</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007577711410629438</v>
+        <v>0.007547003210479936</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0118009418997185</v>
+        <v>0.01168856259177862</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>34016</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>22863</v>
+        <v>23965</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>49751</v>
+        <v>49173</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.009992029562684549</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006715966856563884</v>
+        <v>0.007039465453951904</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01461387029377179</v>
+        <v>0.0144442559561</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>61</v>
@@ -2553,19 +2553,19 @@
         <v>41482</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>31444</v>
+        <v>32105</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>55270</v>
+        <v>55358</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01154029323986462</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.008747730405799041</v>
+        <v>0.008931557845972537</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01537624883205191</v>
+        <v>0.01540072367628887</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>92</v>
@@ -2574,19 +2574,19 @@
         <v>75498</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>60075</v>
+        <v>59998</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>95651</v>
+        <v>94588</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01078719764143895</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008583484749237761</v>
+        <v>0.008572584736070747</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01366663750381117</v>
+        <v>0.01351478270027811</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>3162179</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3131517</v>
+        <v>3126085</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3193835</v>
+        <v>3192224</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9288677273959118</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9198609833398917</v>
+        <v>0.9182652943414754</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9381664989871074</v>
+        <v>0.9376932867262348</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4804</v>
@@ -2624,19 +2624,19 @@
         <v>3378552</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3352712</v>
+        <v>3351811</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3400940</v>
+        <v>3402470</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9399163999117069</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9327276990353434</v>
+        <v>0.9324769482084828</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9461448410490858</v>
+        <v>0.9465703928776205</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7806</v>
@@ -2645,19 +2645,19 @@
         <v>6540731</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6497920</v>
+        <v>6498049</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6578839</v>
+        <v>6576371</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.934542181835851</v>
+        <v>0.9345421818358511</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9284254206316156</v>
+        <v>0.9284438284115853</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9399870290398802</v>
+        <v>0.9396344558844959</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>121619</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>101056</v>
+        <v>101414</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>144079</v>
+        <v>145214</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03572481225892516</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02968460012050708</v>
+        <v>0.02978978385760865</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04232232735065137</v>
+        <v>0.04265545841753188</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>168</v>
@@ -2695,19 +2695,19 @@
         <v>102539</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>86897</v>
+        <v>86220</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>121637</v>
+        <v>121312</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02852640993082152</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02417489396451829</v>
+        <v>0.02398656779457042</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03383945769678941</v>
+        <v>0.03374907895014755</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>302</v>
@@ -2716,19 +2716,19 @@
         <v>224158</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>198638</v>
+        <v>195802</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>254378</v>
+        <v>254106</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03202780648807051</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02838151566893702</v>
+        <v>0.02797621913928126</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03634566710618044</v>
+        <v>0.03630674678146809</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>57030</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>43900</v>
+        <v>43078</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>76178</v>
+        <v>74887</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01675215266587453</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01289532628145773</v>
+        <v>0.01265396181873042</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02237668176815287</v>
+        <v>0.02199757885124222</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -2766,19 +2766,19 @@
         <v>35583</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>25835</v>
+        <v>25811</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>47146</v>
+        <v>49413</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009899138975835647</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007187375037912812</v>
+        <v>0.007180761467027133</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01311593419744908</v>
+        <v>0.01374686191546599</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>109</v>
@@ -2787,19 +2787,19 @@
         <v>92613</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>75503</v>
+        <v>75377</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>116713</v>
+        <v>113632</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01323253400536904</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01078790482795943</v>
+        <v>0.01076988750360911</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01667606398095834</v>
+        <v>0.01623578006942544</v>
       </c>
     </row>
     <row r="33">
